--- a/dallas metro data.xlsx
+++ b/dallas metro data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cadenlin/PycharmProjects/synapse/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91065804-061A-EC4B-B8C9-70805BC4069B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A9E473-D9C5-2842-8EEF-BEBC09BD421D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45360" yWindow="960" windowWidth="20120" windowHeight="12440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14600" yWindow="480" windowWidth="14200" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Market intelligence matrix" sheetId="1" r:id="rId1"/>
@@ -672,7 +672,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -745,10 +745,10 @@
         <v>961885</v>
       </c>
       <c r="C3">
-        <v>33.019799999999996</v>
+        <v>32.768799000000001</v>
       </c>
       <c r="D3">
-        <v>-96.698899999999995</v>
+        <v>-97.309341000000003</v>
       </c>
       <c r="E3">
         <v>67927</v>
@@ -771,10 +771,10 @@
         <v>227528</v>
       </c>
       <c r="C4">
-        <v>32.814</v>
+        <v>33.150700000000001</v>
       </c>
       <c r="D4">
-        <v>-96.955299999999994</v>
+        <v>-96.818732999999995</v>
       </c>
       <c r="E4">
         <v>134210</v>
@@ -797,10 +797,10 @@
         <v>292066</v>
       </c>
       <c r="C5">
-        <v>32.735700000000001</v>
+        <v>33.019799999999996</v>
       </c>
       <c r="D5">
-        <v>-97.108099999999993</v>
+        <v>-96.698882999999995</v>
       </c>
       <c r="E5">
         <v>99729</v>
@@ -823,10 +823,10 @@
         <v>211397</v>
       </c>
       <c r="C6">
-        <v>33.150700000000001</v>
+        <v>33.198300000000003</v>
       </c>
       <c r="D6">
-        <v>-96.823599999999999</v>
+        <v>-96.638900000000007</v>
       </c>
       <c r="E6">
         <v>106437</v>
@@ -856,6 +856,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3f770fe8-754c-47a7-a1b5-0521029328cb">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="5d3d0d75-354f-4ad5-99ec-596b178ca6f5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005D3C72E15EAE2947B106C1EF47641FD3" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="344e1d8812083c5ad461adc76425af83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3f770fe8-754c-47a7-a1b5-0521029328cb" xmlns:ns3="5d3d0d75-354f-4ad5-99ec-596b178ca6f5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bb27c02ca5ca0e5424bc5f38e2b0f1fb" ns2:_="" ns3:_="">
     <xsd:import namespace="3f770fe8-754c-47a7-a1b5-0521029328cb"/>
@@ -1078,17 +1089,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3f770fe8-754c-47a7-a1b5-0521029328cb">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="5d3d0d75-354f-4ad5-99ec-596b178ca6f5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56B0D783-CED1-49B1-8A5B-F539C3F1FF0C}">
   <ds:schemaRefs>
@@ -1098,6 +1098,17 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D485F43-9207-4C96-A127-72E9CD3FC351}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3f770fe8-754c-47a7-a1b5-0521029328cb"/>
+    <ds:schemaRef ds:uri="5d3d0d75-354f-4ad5-99ec-596b178ca6f5"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18D34BE9-0E5D-4BE4-8549-0A6FF7E7B4AA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1114,15 +1125,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D485F43-9207-4C96-A127-72E9CD3FC351}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3f770fe8-754c-47a7-a1b5-0521029328cb"/>
-    <ds:schemaRef ds:uri="5d3d0d75-354f-4ad5-99ec-596b178ca6f5"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>